--- a/saved_stats.xlsx
+++ b/saved_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Cecum_Microbes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3649813F-6C78-42E7-9546-14E6B4D334BB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49A8C54-AB46-45B0-BC31-07809B65ECAC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{76FDAE5B-2FE0-4081-8A14-9A02BDD15C6B}"/>
   </bookViews>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F641FC-ECF0-4FEE-B1F4-8B1BE68EF1BC}">
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="P65" sqref="P65"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/saved_stats.xlsx
+++ b/saved_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Cecum_Microbes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49A8C54-AB46-45B0-BC31-07809B65ECAC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C029F4-EA36-439E-9E68-D9D3C14D4044}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{76FDAE5B-2FE0-4081-8A14-9A02BDD15C6B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="40">
   <si>
     <t>Summer_Wild Summer_Lab</t>
   </si>
@@ -119,12 +119,39 @@
   <si>
     <t>Adiv mucosa w/o 916</t>
   </si>
+  <si>
+    <t>shannon.pval</t>
+  </si>
+  <si>
+    <t>shannon.bonf</t>
+  </si>
+  <si>
+    <t>shannon.BH</t>
+  </si>
+  <si>
+    <t>Summer_Wild</t>
+  </si>
+  <si>
+    <t>Summer_Lab</t>
+  </si>
+  <si>
+    <t>Torpor</t>
+  </si>
+  <si>
+    <t>IBA</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>sample type within group</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +187,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -270,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,9 +316,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -322,6 +352,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F641FC-ECF0-4FEE-B1F4-8B1BE68EF1BC}">
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:B76"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,23 +696,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -679,7 +725,7 @@
       <c r="C3" s="4">
         <v>0.01</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="22">
         <v>1.6666669999999999E-3</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -691,7 +737,7 @@
       <c r="I3" s="4">
         <v>0.01</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="22">
         <v>1.25E-3</v>
       </c>
     </row>
@@ -705,7 +751,7 @@
       <c r="C4" s="4">
         <v>0.01</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="22">
         <v>1.6666669999999999E-3</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -717,7 +763,7 @@
       <c r="I4" s="4">
         <v>0.01</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="22">
         <v>1.25E-3</v>
       </c>
     </row>
@@ -731,7 +777,7 @@
       <c r="C5" s="4">
         <v>0.01</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="22">
         <v>1.6666669999999999E-3</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -743,33 +789,33 @@
       <c r="I5" s="4">
         <v>0.01</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="22">
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:16" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0.03</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="23">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>1E-3</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>0.01</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="23">
         <v>1.25E-3</v>
       </c>
     </row>
@@ -783,7 +829,7 @@
       <c r="C7" s="4">
         <v>0.01</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="22">
         <v>1.6666669999999999E-3</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -795,7 +841,7 @@
       <c r="I7" s="4">
         <v>0.01</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="22">
         <v>1.25E-3</v>
       </c>
     </row>
@@ -809,7 +855,7 @@
       <c r="C8" s="4">
         <v>0.01</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="22">
         <v>1.6666669999999999E-3</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -821,33 +867,33 @@
       <c r="I8" s="4">
         <v>0.01</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="22">
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:16" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>0.05</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="23">
         <v>5.5555559999999997E-3</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>0.03</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="23">
         <v>3.333333E-3</v>
       </c>
     </row>
@@ -877,112 +923,112 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:16" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>1E-3</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>0.01</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="23">
         <v>1.6666669999999999E-3</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>1E-3</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>0.01</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="23">
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:16" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>2E-3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>0.02</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="23">
         <v>2.8571400000000002E-3</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>1E-3</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>0.01</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="23">
         <v>1.25E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1001,523 +1047,523 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="P17" s="17"/>
+      <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>1.616031E-4</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>1.616031E-3</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="24">
         <v>1.248751E-3</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>2.0200388E-2</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>0.20200388</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="24">
         <v>4.0400779999999997E-2</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>0.14899805999999999</v>
       </c>
-      <c r="I18" s="13">
-        <v>1</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
         <v>0.29799609999999999</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>0.197161747</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <v>9.8254690000000006E-2</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>0.9825469</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <v>0.1965094</v>
       </c>
-      <c r="P18" s="17"/>
+      <c r="P18" s="16"/>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>2.4975019999999999E-4</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>2.497502E-3</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="24">
         <v>1.248751E-3</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>1.0989011E-2</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>0.10989011</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="24">
         <v>4.0400779999999997E-2</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>0.11788212000000001</v>
       </c>
-      <c r="I19" s="13">
-        <v>1</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
         <v>0.2947053</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>0.127955981</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>5.5944059999999997E-2</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <v>0.55944059999999995</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <v>0.1965094</v>
       </c>
-      <c r="P19" s="17"/>
+      <c r="P19" s="16"/>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>7.2973839999999999E-4</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>7.2973839999999996E-3</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="24">
         <v>1.8243459999999999E-3</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>2.8527199999999999E-2</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>0.28527200000000003</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="24">
         <v>4.7545329999999997E-2</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="24">
         <v>7.1502289999999996E-2</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>0.71502290000000002</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>0.2947053</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>0.18699655800000001</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <v>8.7424440000000006E-2</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <v>0.87424440000000003</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <v>0.1965094</v>
       </c>
-      <c r="P20" s="17"/>
+      <c r="P20" s="16"/>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>4.3290042999999997E-3</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>4.3290043E-2</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="24">
         <v>7.9761999999999993E-3</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>8.6580089999999995E-3</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>8.6580089999999998E-2</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="24">
         <v>4.0400779999999997E-2</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="24">
         <v>5.1948050000000003E-2</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>0.51948050000000001</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>0.2947053</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <v>2.4381170000000001E-3</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <v>5.1948050000000003E-2</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>0.51948050000000001</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <v>0.1965094</v>
       </c>
-      <c r="P21" s="17"/>
+      <c r="P21" s="16"/>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>4.7857200000000003E-3</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>4.7857200000000003E-2</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="24">
         <v>7.9761999999999993E-3</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>0.80940473400000001</v>
       </c>
-      <c r="F22" s="13">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
         <v>0.89933859000000005</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>0.65390285999999997</v>
       </c>
-      <c r="I22" s="13">
-        <v>1</v>
-      </c>
-      <c r="J22" s="13">
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12">
         <v>0.7265587</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <v>0.99798970799999998</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <v>0.75644427999999997</v>
       </c>
-      <c r="M22" s="13">
-        <v>1</v>
-      </c>
-      <c r="N22" s="13">
+      <c r="M22" s="12">
+        <v>1</v>
+      </c>
+      <c r="N22" s="12">
         <v>0.84049359999999995</v>
       </c>
-      <c r="P22" s="17"/>
+      <c r="P22" s="16"/>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>4.0793280000000001E-4</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>4.0793280000000001E-3</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="24">
         <v>1.359776E-3</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>0.77621082799999996</v>
       </c>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
         <v>0.89933859000000005</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>0.95468531000000001</v>
       </c>
-      <c r="I23" s="13">
-        <v>1</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
         <v>0.95468529999999996</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <v>0.99999931799999997</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="12">
         <v>0.90951082999999999</v>
       </c>
-      <c r="M23" s="13">
-        <v>1</v>
-      </c>
-      <c r="N23" s="13">
+      <c r="M23" s="12">
+        <v>1</v>
+      </c>
+      <c r="N23" s="12">
         <v>0.90951079999999995</v>
       </c>
-      <c r="P23" s="17"/>
+      <c r="P23" s="16"/>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="13">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
         <v>1.9230769000000002E-2</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>0.19230769</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="24">
         <v>4.0400779999999997E-2</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>0.26739927000000002</v>
       </c>
-      <c r="I24" s="13">
-        <v>1</v>
-      </c>
-      <c r="J24" s="13">
+      <c r="I24" s="12">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12">
         <v>0.44566539999999999</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="12">
         <v>0.137270739</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="12">
         <v>0.22115385000000001</v>
       </c>
-      <c r="M24" s="13">
-        <v>1</v>
-      </c>
-      <c r="N24" s="13">
+      <c r="M24" s="12">
+        <v>1</v>
+      </c>
+      <c r="N24" s="12">
         <v>0.36344609999999999</v>
       </c>
-      <c r="P24" s="17"/>
+      <c r="P24" s="16"/>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>0.59800062279999999</v>
       </c>
-      <c r="C25" s="13">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
         <v>0.66444513599999999</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>0.97577237699999997</v>
       </c>
-      <c r="F25" s="13">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13">
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
         <v>0.97577237999999999</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>0.56293256000000003</v>
       </c>
-      <c r="I25" s="13">
-        <v>1</v>
-      </c>
-      <c r="J25" s="13">
+      <c r="I25" s="12">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12">
         <v>0.70366569999999995</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <v>0.99630626899999997</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <v>0.64816191000000001</v>
       </c>
-      <c r="M25" s="13">
-        <v>1</v>
-      </c>
-      <c r="N25" s="13">
+      <c r="M25" s="12">
+        <v>1</v>
+      </c>
+      <c r="N25" s="12">
         <v>0.81020239999999999</v>
       </c>
-      <c r="P25" s="17"/>
+      <c r="P25" s="16"/>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>1.26540127E-2</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>0.126540127</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="24">
         <v>1.5817516E-2</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>1.9314019000000002E-2</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>0.19314018999999999</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="24">
         <v>4.0400779999999997E-2</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>0.51348651000000001</v>
       </c>
-      <c r="I26" s="13">
-        <v>1</v>
-      </c>
-      <c r="J26" s="13">
+      <c r="I26" s="12">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12">
         <v>0.70366569999999995</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="12">
         <v>0.233812513</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="12">
         <v>0.25441225000000001</v>
       </c>
-      <c r="M26" s="13">
-        <v>1</v>
-      </c>
-      <c r="N26" s="13">
+      <c r="M26" s="12">
+        <v>1</v>
+      </c>
+      <c r="N26" s="12">
         <v>0.36344609999999999</v>
       </c>
-      <c r="P26" s="17"/>
+      <c r="P26" s="16"/>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>1.03408999E-2</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>0.103408999</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="24">
         <v>1.4772713999999999E-2</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>9.4537814999999997E-2</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>0.94537815000000003</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <v>0.13505402</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>9.4537819999999995E-2</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <v>0.94537819999999995</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <v>0.2947053</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="12">
         <v>0.113665981</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="12">
         <v>9.4537819999999995E-2</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="12">
         <v>0.94537819999999995</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="12">
         <v>0.1965094</v>
       </c>
-      <c r="P27" s="17"/>
+      <c r="P27" s="16"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P28" s="17"/>
+      <c r="P28" s="16"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P29" s="17"/>
+      <c r="P29" s="16"/>
     </row>
     <row r="30" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="19" t="s">
+      <c r="P30" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="P31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="P31" s="16"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
@@ -1534,522 +1580,522 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="P32" s="17"/>
+      <c r="P32" s="16"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <v>3.3333330000000001E-2</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <v>0.3333333</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="12">
         <v>0.15873019999999999</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="24">
         <v>2.9545491900000002E-2</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="24">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
-      <c r="P33" s="17"/>
+      <c r="P33" s="16"/>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <v>7.1428569999999997E-2</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <v>0.71428570000000002</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="12">
         <v>0.17857139999999999</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="24">
         <v>9.9684333799999997E-2</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="24">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="P34" s="17"/>
+      <c r="P34" s="16"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>2.753189E-2</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>0.27531889999999998</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="12">
         <v>0.15873019999999999</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="12">
         <v>0.12669343529999999</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="24">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
-      <c r="P35" s="17"/>
+      <c r="P35" s="16"/>
     </row>
     <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>0.1</v>
       </c>
-      <c r="C36" s="13">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13">
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
         <v>0.15151514999999999</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>0.1</v>
       </c>
-      <c r="F36" s="13">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12">
         <v>0.19444439999999999</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <v>0.1</v>
       </c>
-      <c r="I36" s="13">
-        <v>1</v>
-      </c>
-      <c r="J36" s="13">
+      <c r="I36" s="12">
+        <v>1</v>
+      </c>
+      <c r="J36" s="12">
         <v>0.2</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="24">
         <v>4.9311609999999997E-4</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="12">
         <v>0.1</v>
       </c>
-      <c r="M36" s="13">
-        <v>1</v>
-      </c>
-      <c r="N36" s="13">
+      <c r="M36" s="12">
+        <v>1</v>
+      </c>
+      <c r="N36" s="12">
         <v>0.2</v>
       </c>
-      <c r="P36" s="17"/>
+      <c r="P36" s="16"/>
     </row>
     <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>0.10606061</v>
       </c>
-      <c r="C37" s="13">
-        <v>1</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
         <v>0.15151514999999999</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>0.34343434</v>
       </c>
-      <c r="F37" s="13">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12">
         <v>0.42929289999999998</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="12">
         <v>0.75505051000000001</v>
       </c>
-      <c r="I37" s="13">
-        <v>1</v>
-      </c>
-      <c r="J37" s="13">
+      <c r="I37" s="12">
+        <v>1</v>
+      </c>
+      <c r="J37" s="12">
         <v>0.94381309999999996</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="12">
         <v>0.98233145190000004</v>
       </c>
-      <c r="L37" s="13">
-        <v>1</v>
-      </c>
-      <c r="M37" s="13">
-        <v>1</v>
-      </c>
-      <c r="N37" s="13">
-        <v>1</v>
-      </c>
-      <c r="P37" s="17"/>
+      <c r="L37" s="12">
+        <v>1</v>
+      </c>
+      <c r="M37" s="12">
+        <v>1</v>
+      </c>
+      <c r="N37" s="12">
+        <v>1</v>
+      </c>
+      <c r="P37" s="16"/>
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>1.8255859999999999E-2</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>0.18255859999999999</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>0.73076923000000005</v>
       </c>
-      <c r="F38" s="13">
-        <v>1</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12">
         <v>0.79220780000000002</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>0.94522145000000002</v>
       </c>
-      <c r="I38" s="13">
-        <v>1</v>
-      </c>
-      <c r="J38" s="13">
+      <c r="I38" s="12">
+        <v>1</v>
+      </c>
+      <c r="J38" s="12">
         <v>0.94522139999999999</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="12">
         <v>0.91476192420000002</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="12">
         <v>0.83566434000000001</v>
       </c>
-      <c r="M38" s="13">
-        <v>1</v>
-      </c>
-      <c r="N38" s="13">
+      <c r="M38" s="12">
+        <v>1</v>
+      </c>
+      <c r="N38" s="12">
         <v>0.92851592999999999</v>
       </c>
-      <c r="P38" s="17"/>
+      <c r="P38" s="16"/>
     </row>
     <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>0.83333332999999998</v>
       </c>
-      <c r="C39" s="13">
-        <v>1</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12">
         <v>0.83333332999999998</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>0.11666667</v>
       </c>
-      <c r="F39" s="13">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12">
         <v>0.19444439999999999</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <v>0.26666666999999999</v>
       </c>
-      <c r="I39" s="13">
-        <v>1</v>
-      </c>
-      <c r="J39" s="13">
+      <c r="I39" s="12">
+        <v>1</v>
+      </c>
+      <c r="J39" s="12">
         <v>0.38095240000000002</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="24">
         <v>7.2067798000000002E-2</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="12">
         <v>0.26666666999999999</v>
       </c>
-      <c r="M39" s="13">
-        <v>1</v>
-      </c>
-      <c r="N39" s="13">
+      <c r="M39" s="12">
+        <v>1</v>
+      </c>
+      <c r="N39" s="12">
         <v>0.38095237999999998</v>
       </c>
-      <c r="P39" s="17"/>
+      <c r="P39" s="16"/>
     </row>
     <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>0.16992989999999999</v>
       </c>
-      <c r="C40" s="13">
-        <v>1</v>
-      </c>
-      <c r="D40" s="13">
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12">
         <v>0.21241236999999999</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <v>0.79220778999999997</v>
       </c>
-      <c r="F40" s="13">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13">
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12">
         <v>0.79220780000000002</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <v>0.93073592999999999</v>
       </c>
-      <c r="I40" s="13">
-        <v>1</v>
-      </c>
-      <c r="J40" s="13">
+      <c r="I40" s="12">
+        <v>1</v>
+      </c>
+      <c r="J40" s="12">
         <v>0.94522139999999999</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="12">
         <v>0.99901165920000001</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="12">
         <v>0.79220778999999997</v>
       </c>
-      <c r="M40" s="13">
-        <v>1</v>
-      </c>
-      <c r="N40" s="13">
+      <c r="M40" s="12">
+        <v>1</v>
+      </c>
+      <c r="N40" s="12">
         <v>0.92851592999999999</v>
       </c>
-      <c r="P40" s="17"/>
+      <c r="P40" s="16"/>
     </row>
     <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>0.39285713999999999</v>
       </c>
-      <c r="C41" s="13">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="C41" s="12">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12">
         <v>0.43650793999999998</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <v>7.1428569999999997E-2</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>0.71428570000000002</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>0.17857139999999999</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <v>0.25</v>
       </c>
-      <c r="I41" s="13">
-        <v>1</v>
-      </c>
-      <c r="J41" s="13">
+      <c r="I41" s="12">
+        <v>1</v>
+      </c>
+      <c r="J41" s="12">
         <v>0.38095240000000002</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="24">
         <v>4.1631640300000002E-2</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="12">
         <v>0.14285713999999999</v>
       </c>
-      <c r="M41" s="13">
-        <v>1</v>
-      </c>
-      <c r="N41" s="13">
+      <c r="M41" s="12">
+        <v>1</v>
+      </c>
+      <c r="N41" s="12">
         <v>0.23809524000000001</v>
       </c>
-      <c r="P41" s="17"/>
+      <c r="P41" s="16"/>
     </row>
     <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>9.1924980000000003E-2</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>0.91924980000000001</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>0.15151514999999999</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>0.26190476000000001</v>
       </c>
-      <c r="F42" s="13">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13">
+      <c r="F42" s="12">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12">
         <v>0.37414969999999997</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>4.7619050000000003E-2</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>0.47619050000000002</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="12">
         <v>0.15873019999999999</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="24">
         <v>2.14610301E-2</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="24">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
-      <c r="P42" s="17"/>
+      <c r="P42" s="16"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P43" s="17"/>
+      <c r="P43" s="16"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P44" s="17"/>
+      <c r="P44" s="16"/>
     </row>
     <row r="45" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="N45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P45" s="19" t="s">
+      <c r="P45" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
@@ -2071,43 +2117,43 @@
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="12">
         <v>3.3333330000000001E-2</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="12">
         <v>0.3333333</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="12">
         <v>0.15873019999999999</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="12">
         <v>2.9545491900000002E-2</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N48" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
     </row>
@@ -2115,43 +2161,43 @@
       <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="12">
         <v>7.1428569999999997E-2</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="12">
         <v>0.71428570000000002</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="12">
         <v>0.17857139999999999</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="12">
         <v>9.9684333799999997E-2</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N49" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
     </row>
@@ -2159,43 +2205,43 @@
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>2.753189E-2</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>0.27531889999999998</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="12">
         <v>0.15873019999999999</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="12">
         <v>0.12669343529999999</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M50" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N50" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
     </row>
@@ -2203,43 +2249,43 @@
       <c r="A51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>0.1</v>
       </c>
-      <c r="C51" s="13">
-        <v>1</v>
-      </c>
-      <c r="D51" s="13">
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
         <v>0.15151514999999999</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <v>0.1</v>
       </c>
-      <c r="F51" s="13">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13">
+      <c r="F51" s="12">
+        <v>1</v>
+      </c>
+      <c r="G51" s="12">
         <v>0.19444439999999999</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="12">
         <v>0.1</v>
       </c>
-      <c r="I51" s="13">
-        <v>1</v>
-      </c>
-      <c r="J51" s="13">
+      <c r="I51" s="12">
+        <v>1</v>
+      </c>
+      <c r="J51" s="12">
         <v>0.2</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K51" s="12">
         <v>4.9311609999999997E-4</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L51" s="12">
         <v>0.1</v>
       </c>
-      <c r="M51" s="13">
-        <v>1</v>
-      </c>
-      <c r="N51" s="13">
+      <c r="M51" s="12">
+        <v>1</v>
+      </c>
+      <c r="N51" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -2247,43 +2293,43 @@
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>0.10606061</v>
       </c>
-      <c r="C52" s="13">
-        <v>1</v>
-      </c>
-      <c r="D52" s="13">
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12">
         <v>0.15151514999999999</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="12">
         <v>0.34343434</v>
       </c>
-      <c r="F52" s="13">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13">
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
+      <c r="G52" s="12">
         <v>0.42929289999999998</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="12">
         <v>0.75505051000000001</v>
       </c>
-      <c r="I52" s="13">
-        <v>1</v>
-      </c>
-      <c r="J52" s="13">
+      <c r="I52" s="12">
+        <v>1</v>
+      </c>
+      <c r="J52" s="12">
         <v>0.94381309999999996</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K52" s="12">
         <v>0.98233145190000004</v>
       </c>
-      <c r="L52" s="13">
-        <v>1</v>
-      </c>
-      <c r="M52" s="13">
-        <v>1</v>
-      </c>
-      <c r="N52" s="13">
+      <c r="L52" s="12">
+        <v>1</v>
+      </c>
+      <c r="M52" s="12">
+        <v>1</v>
+      </c>
+      <c r="N52" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2291,43 +2337,43 @@
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>1.8255859999999999E-2</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="12">
         <v>0.18255859999999999</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="12">
         <v>0.73076923000000005</v>
       </c>
-      <c r="F53" s="13">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="F53" s="12">
+        <v>1</v>
+      </c>
+      <c r="G53" s="12">
         <v>0.79220780000000002</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="12">
         <v>0.94522145000000002</v>
       </c>
-      <c r="I53" s="13">
-        <v>1</v>
-      </c>
-      <c r="J53" s="13">
+      <c r="I53" s="12">
+        <v>1</v>
+      </c>
+      <c r="J53" s="12">
         <v>0.94522139999999999</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="12">
         <v>0.91476192420000002</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="12">
         <v>0.83566434000000001</v>
       </c>
-      <c r="M53" s="13">
-        <v>1</v>
-      </c>
-      <c r="N53" s="13">
+      <c r="M53" s="12">
+        <v>1</v>
+      </c>
+      <c r="N53" s="12">
         <v>0.92851592999999999</v>
       </c>
     </row>
@@ -2335,43 +2381,43 @@
       <c r="A54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>0.83333332999999998</v>
       </c>
-      <c r="C54" s="13">
-        <v>1</v>
-      </c>
-      <c r="D54" s="13">
+      <c r="C54" s="12">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12">
         <v>0.83333332999999998</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="12">
         <v>0.11666667</v>
       </c>
-      <c r="F54" s="13">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13">
+      <c r="F54" s="12">
+        <v>1</v>
+      </c>
+      <c r="G54" s="12">
         <v>0.19444439999999999</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="12">
         <v>0.26666666999999999</v>
       </c>
-      <c r="I54" s="13">
-        <v>1</v>
-      </c>
-      <c r="J54" s="13">
+      <c r="I54" s="12">
+        <v>1</v>
+      </c>
+      <c r="J54" s="12">
         <v>0.38095240000000002</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="12">
         <v>7.2067798000000002E-2</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L54" s="12">
         <v>0.26666666999999999</v>
       </c>
-      <c r="M54" s="13">
-        <v>1</v>
-      </c>
-      <c r="N54" s="13">
+      <c r="M54" s="12">
+        <v>1</v>
+      </c>
+      <c r="N54" s="12">
         <v>0.38095237999999998</v>
       </c>
     </row>
@@ -2379,43 +2425,43 @@
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>0.16992989999999999</v>
       </c>
-      <c r="C55" s="13">
-        <v>1</v>
-      </c>
-      <c r="D55" s="13">
+      <c r="C55" s="12">
+        <v>1</v>
+      </c>
+      <c r="D55" s="12">
         <v>0.21241236999999999</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="12">
         <v>0.79220778999999997</v>
       </c>
-      <c r="F55" s="13">
-        <v>1</v>
-      </c>
-      <c r="G55" s="13">
+      <c r="F55" s="12">
+        <v>1</v>
+      </c>
+      <c r="G55" s="12">
         <v>0.79220780000000002</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="12">
         <v>0.93073592999999999</v>
       </c>
-      <c r="I55" s="13">
-        <v>1</v>
-      </c>
-      <c r="J55" s="13">
+      <c r="I55" s="12">
+        <v>1</v>
+      </c>
+      <c r="J55" s="12">
         <v>0.94522139999999999</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K55" s="12">
         <v>0.99901165920000001</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="12">
         <v>0.79220778999999997</v>
       </c>
-      <c r="M55" s="13">
-        <v>1</v>
-      </c>
-      <c r="N55" s="13">
+      <c r="M55" s="12">
+        <v>1</v>
+      </c>
+      <c r="N55" s="12">
         <v>0.92851592999999999</v>
       </c>
     </row>
@@ -2423,43 +2469,43 @@
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>0.39285713999999999</v>
       </c>
-      <c r="C56" s="13">
-        <v>1</v>
-      </c>
-      <c r="D56" s="13">
+      <c r="C56" s="12">
+        <v>1</v>
+      </c>
+      <c r="D56" s="12">
         <v>0.43650793999999998</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="12">
         <v>7.1428569999999997E-2</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="12">
         <v>0.71428570000000002</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="12">
         <v>0.17857139999999999</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="12">
         <v>0.25</v>
       </c>
-      <c r="I56" s="13">
-        <v>1</v>
-      </c>
-      <c r="J56" s="13">
+      <c r="I56" s="12">
+        <v>1</v>
+      </c>
+      <c r="J56" s="12">
         <v>0.38095240000000002</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="12">
         <v>4.1631640300000002E-2</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="12">
         <v>0.14285713999999999</v>
       </c>
-      <c r="M56" s="13">
-        <v>1</v>
-      </c>
-      <c r="N56" s="13">
+      <c r="M56" s="12">
+        <v>1</v>
+      </c>
+      <c r="N56" s="12">
         <v>0.23809524000000001</v>
       </c>
     </row>
@@ -2467,105 +2513,105 @@
       <c r="A57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>9.1924980000000003E-2</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>0.91924980000000001</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>0.15151514999999999</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <v>0.26190476000000001</v>
       </c>
-      <c r="F57" s="13">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13">
+      <c r="F57" s="12">
+        <v>1</v>
+      </c>
+      <c r="G57" s="12">
         <v>0.37414969999999997</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="12">
         <v>4.7619050000000003E-2</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>0.47619050000000002</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="12">
         <v>0.15873019999999999</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="12">
         <v>2.14610301E-2</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N57" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="14"/>
-      <c r="C64" s="8" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="I64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K64" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="L64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M64" s="8" t="s">
+      <c r="M64" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="8" t="s">
+      <c r="N64" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P64" s="18" t="s">
+      <c r="P64" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="P65" s="17"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="P65" s="16"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
@@ -2582,507 +2628,507 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
-      <c r="P66" s="17"/>
+      <c r="P66" s="16"/>
     </row>
     <row r="67" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>1.616031E-4</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="12">
         <v>1.616031E-3</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="24">
         <v>1.248751E-3</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="12">
         <v>2.0200388E-2</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="12">
         <v>0.20200388</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="24">
         <v>4.7545329999999997E-2</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="12">
         <v>0.14899805999999999</v>
       </c>
-      <c r="I67" s="13">
-        <v>1</v>
-      </c>
-      <c r="J67" s="13">
+      <c r="I67" s="12">
+        <v>1</v>
+      </c>
+      <c r="J67" s="12">
         <v>0.37249520000000003</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K67" s="12">
         <v>0.20333110700000001</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L67" s="12">
         <v>9.8254690000000006E-2</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M67" s="12">
         <v>0.9825469</v>
       </c>
-      <c r="N67" s="13">
+      <c r="N67" s="12">
         <v>0.24563670000000001</v>
       </c>
-      <c r="P67" s="17"/>
+      <c r="P67" s="16"/>
     </row>
     <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>2.4975019999999999E-4</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="12">
         <v>2.497502E-3</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="24">
         <v>1.248751E-3</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="12">
         <v>1.0989011E-2</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="12">
         <v>0.10989011</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="24">
         <v>4.7545329999999997E-2</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="12">
         <v>0.11788212000000001</v>
       </c>
-      <c r="I68" s="13">
-        <v>1</v>
-      </c>
-      <c r="J68" s="13">
+      <c r="I68" s="12">
+        <v>1</v>
+      </c>
+      <c r="J68" s="12">
         <v>0.37249520000000003</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K68" s="12">
         <v>0.13263074699999999</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L68" s="12">
         <v>5.5944059999999997E-2</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="12">
         <v>0.55944059999999995</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N68" s="12">
         <v>0.24563670000000001</v>
       </c>
-      <c r="P68" s="17"/>
+      <c r="P68" s="16"/>
     </row>
     <row r="69" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>7.2973839999999999E-4</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="12">
         <v>7.2973839999999996E-3</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="24">
         <v>1.8243459999999999E-3</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="12">
         <v>2.8527199999999999E-2</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="12">
         <v>0.28527200000000003</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="24">
         <v>4.7545329999999997E-2</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="12">
         <v>7.1502289999999996E-2</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="12">
         <v>0.71502290000000002</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="12">
         <v>0.35751139999999998</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K69" s="12">
         <v>0.19297676499999999</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L69" s="12">
         <v>8.7424440000000006E-2</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M69" s="12">
         <v>0.87424440000000003</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N69" s="12">
         <v>0.24563670000000001</v>
       </c>
-      <c r="P69" s="17"/>
+      <c r="P69" s="16"/>
     </row>
     <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>1.1655012000000001E-3</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="12">
         <v>1.1655011999999999E-2</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="24">
         <v>2.331002E-3</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="12">
         <v>4.6620050000000003E-3</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="12">
         <v>4.6620050000000003E-2</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="24">
         <v>4.6620050000000003E-2</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="12">
         <v>5.1282050000000003E-2</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="12">
         <v>0.51282050000000001</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="12">
         <v>0.35751139999999998</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K70" s="24">
         <v>5.0118530000000001E-3</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L70" s="12">
         <v>3.4965030000000001E-2</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M70" s="12">
         <v>0.34965030000000002</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N70" s="12">
         <v>0.24563670000000001</v>
       </c>
-      <c r="P70" s="17"/>
+      <c r="P70" s="16"/>
     </row>
     <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>4.7857200000000003E-3</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="12">
         <v>4.7857200000000003E-2</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="24">
         <v>7.9761999999999993E-3</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="12">
         <v>0.80940473400000001</v>
       </c>
-      <c r="F71" s="13">
-        <v>1</v>
-      </c>
-      <c r="G71" s="13">
+      <c r="F71" s="12">
+        <v>1</v>
+      </c>
+      <c r="G71" s="12">
         <v>0.89933859000000005</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="12">
         <v>0.65390285999999997</v>
       </c>
-      <c r="I71" s="13">
-        <v>1</v>
-      </c>
-      <c r="J71" s="13">
+      <c r="I71" s="12">
+        <v>1</v>
+      </c>
+      <c r="J71" s="12">
         <v>0.81737859999999996</v>
       </c>
-      <c r="K71" s="13">
+      <c r="K71" s="12">
         <v>0.99806134000000002</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L71" s="12">
         <v>0.75644427999999997</v>
       </c>
-      <c r="M71" s="13">
-        <v>1</v>
-      </c>
-      <c r="N71" s="13">
+      <c r="M71" s="12">
+        <v>1</v>
+      </c>
+      <c r="N71" s="12">
         <v>0.84049359999999995</v>
       </c>
-      <c r="P71" s="17"/>
+      <c r="P71" s="16"/>
     </row>
     <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>4.0793280000000001E-4</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="12">
         <v>4.0793280000000001E-3</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="24">
         <v>1.359776E-3</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="12">
         <v>0.77621082799999996</v>
       </c>
-      <c r="F72" s="13">
-        <v>1</v>
-      </c>
-      <c r="G72" s="13">
+      <c r="F72" s="12">
+        <v>1</v>
+      </c>
+      <c r="G72" s="12">
         <v>0.89933859000000005</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="12">
         <v>0.95468531000000001</v>
       </c>
-      <c r="I72" s="13">
-        <v>1</v>
-      </c>
-      <c r="J72" s="13">
+      <c r="I72" s="12">
+        <v>1</v>
+      </c>
+      <c r="J72" s="12">
         <v>0.95468529999999996</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K72" s="12">
         <v>0.99999934300000004</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L72" s="12">
         <v>0.90951082999999999</v>
       </c>
-      <c r="M72" s="13">
-        <v>1</v>
-      </c>
-      <c r="N72" s="13">
+      <c r="M72" s="12">
+        <v>1</v>
+      </c>
+      <c r="N72" s="12">
         <v>0.90951079999999995</v>
       </c>
-      <c r="P72" s="17"/>
+      <c r="P72" s="16"/>
     </row>
     <row r="73" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>0.37493715430000002</v>
       </c>
-      <c r="C73" s="13">
-        <v>1</v>
-      </c>
-      <c r="D73" s="13">
+      <c r="C73" s="12">
+        <v>1</v>
+      </c>
+      <c r="D73" s="12">
         <v>0.41659683800000002</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="12">
         <v>2.6772246999999999E-2</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="12">
         <v>0.26772246999999999</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="24">
         <v>4.7545329999999997E-2</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="12">
         <v>0.47894671</v>
       </c>
-      <c r="I73" s="13">
-        <v>1</v>
-      </c>
-      <c r="J73" s="13">
+      <c r="I73" s="12">
+        <v>1</v>
+      </c>
+      <c r="J73" s="12">
         <v>0.79824450000000002</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K73" s="12">
         <v>0.29171351499999998</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L73" s="12">
         <v>0.37493715</v>
       </c>
-      <c r="M73" s="13">
-        <v>1</v>
-      </c>
-      <c r="N73" s="13">
+      <c r="M73" s="12">
+        <v>1</v>
+      </c>
+      <c r="N73" s="12">
         <v>0.59616849999999999</v>
       </c>
-      <c r="P73" s="17"/>
+      <c r="P73" s="16"/>
     </row>
     <row r="74" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>0.59800062279999999</v>
       </c>
-      <c r="C74" s="13">
-        <v>1</v>
-      </c>
-      <c r="D74" s="13">
+      <c r="C74" s="12">
+        <v>1</v>
+      </c>
+      <c r="D74" s="12">
         <v>0.59800062300000001</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="12">
         <v>0.97577237699999997</v>
       </c>
-      <c r="F74" s="13">
-        <v>1</v>
-      </c>
-      <c r="G74" s="13">
+      <c r="F74" s="12">
+        <v>1</v>
+      </c>
+      <c r="G74" s="12">
         <v>0.97577237999999999</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="12">
         <v>0.56293256000000003</v>
       </c>
-      <c r="I74" s="13">
-        <v>1</v>
-      </c>
-      <c r="J74" s="13">
+      <c r="I74" s="12">
+        <v>1</v>
+      </c>
+      <c r="J74" s="12">
         <v>0.80418940000000005</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K74" s="12">
         <v>0.996436557</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L74" s="12">
         <v>0.64816191000000001</v>
       </c>
-      <c r="M74" s="13">
-        <v>1</v>
-      </c>
-      <c r="N74" s="13">
+      <c r="M74" s="12">
+        <v>1</v>
+      </c>
+      <c r="N74" s="12">
         <v>0.81020239999999999</v>
       </c>
-      <c r="P74" s="17"/>
+      <c r="P74" s="16"/>
     </row>
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>0.3638420403</v>
       </c>
-      <c r="C75" s="13">
-        <v>1</v>
-      </c>
-      <c r="D75" s="13">
+      <c r="C75" s="12">
+        <v>1</v>
+      </c>
+      <c r="D75" s="12">
         <v>0.41659683800000002</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="12">
         <v>2.4989715999999999E-2</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="12">
         <v>0.24989716000000001</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="24">
         <v>4.7545329999999997E-2</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="12">
         <v>0.81252570999999996</v>
       </c>
-      <c r="I75" s="13">
-        <v>1</v>
-      </c>
-      <c r="J75" s="13">
+      <c r="I75" s="12">
+        <v>1</v>
+      </c>
+      <c r="J75" s="12">
         <v>0.90280629999999995</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K75" s="12">
         <v>0.459294017</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="12">
         <v>0.41731797999999998</v>
       </c>
-      <c r="M75" s="13">
-        <v>1</v>
-      </c>
-      <c r="N75" s="13">
+      <c r="M75" s="12">
+        <v>1</v>
+      </c>
+      <c r="N75" s="12">
         <v>0.59616849999999999</v>
       </c>
-      <c r="P75" s="17"/>
+      <c r="P75" s="16"/>
     </row>
     <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>0.26707759240000001</v>
       </c>
-      <c r="C76" s="13">
-        <v>1</v>
-      </c>
-      <c r="D76" s="13">
+      <c r="C76" s="12">
+        <v>1</v>
+      </c>
+      <c r="D76" s="12">
         <v>0.38153941800000002</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="12">
         <v>9.6800826000000006E-2</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="12">
         <v>0.96800825999999995</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="12">
         <v>0.13828689</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="12">
         <v>0.31137770999999997</v>
       </c>
-      <c r="I76" s="13">
-        <v>1</v>
-      </c>
-      <c r="J76" s="13">
+      <c r="I76" s="12">
+        <v>1</v>
+      </c>
+      <c r="J76" s="12">
         <v>0.62275539999999996</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K76" s="12">
         <v>0.247282636</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L76" s="12">
         <v>0.21060371999999999</v>
       </c>
-      <c r="M76" s="13">
-        <v>1</v>
-      </c>
-      <c r="N76" s="13">
+      <c r="M76" s="12">
+        <v>1</v>
+      </c>
+      <c r="N76" s="12">
         <v>0.42120740000000001</v>
       </c>
-      <c r="P76" s="17"/>
+      <c r="P76" s="16"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P77" s="17"/>
+      <c r="P77" s="16"/>
     </row>
     <row r="78" spans="1:16" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="P78" s="19" t="s">
+      <c r="P78" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="12" t="s">
+      <c r="G79" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="12" t="s">
+      <c r="H79" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I79" s="12" t="s">
+      <c r="I79" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="12" t="s">
+      <c r="J79" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K79" s="12" t="s">
+      <c r="K79" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L79" s="12" t="s">
+      <c r="L79" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M79" s="12" t="s">
+      <c r="M79" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N79" s="12" t="s">
+      <c r="N79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P79" s="17"/>
+      <c r="P79" s="16"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
@@ -3099,522 +3145,522 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
-      <c r="P80" s="17"/>
+      <c r="P80" s="16"/>
     </row>
     <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81" s="12">
         <v>3.3333330000000001E-2</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="12">
         <v>0.3333333</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="12">
         <v>0.12698409999999999</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K81" s="24">
         <v>2.9523173900000001E-2</v>
       </c>
-      <c r="L81" s="13">
+      <c r="L81" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="M81" s="13">
+      <c r="M81" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="N81" s="13">
+      <c r="N81" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
-      <c r="P81" s="17"/>
+      <c r="P81" s="16"/>
     </row>
     <row r="82" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="12">
         <v>7.1428569999999997E-2</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="12">
         <v>0.71428570000000002</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J82" s="12">
         <v>0.14285709999999999</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K82" s="12">
         <v>0.1006388714</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L82" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="M82" s="13">
+      <c r="M82" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="N82" s="13">
+      <c r="N82" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="P82" s="17"/>
+      <c r="P82" s="16"/>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="12">
         <v>2.753189E-2</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="12">
         <v>0.27531889999999998</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J83" s="12">
         <v>0.12698409999999999</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K83" s="12">
         <v>0.12804572259999999</v>
       </c>
-      <c r="L83" s="13">
+      <c r="L83" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="M83" s="13">
+      <c r="M83" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="N83" s="13">
+      <c r="N83" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
-      <c r="P83" s="17"/>
+      <c r="P83" s="16"/>
     </row>
     <row r="84" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="12">
         <v>5.7142859999999997E-2</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="12">
         <v>0.57142859999999995</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="12">
         <v>0.11428571</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="12">
         <v>5.7142859999999997E-2</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="12">
         <v>0.57142859999999995</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="12">
         <v>0.12698409999999999</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="12">
         <v>5.7142859999999997E-2</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84" s="12">
         <v>0.57142859999999995</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="12">
         <v>0.14285709999999999</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K84" s="24">
         <v>5.2527070000000001E-4</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L84" s="12">
         <v>5.7142859999999997E-2</v>
       </c>
-      <c r="M84" s="13">
+      <c r="M84" s="12">
         <v>0.57142859999999995</v>
       </c>
-      <c r="N84" s="13">
+      <c r="N84" s="12">
         <v>0.11428571</v>
       </c>
-      <c r="P84" s="17"/>
+      <c r="P84" s="16"/>
     </row>
     <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="12">
         <v>0.10606061</v>
       </c>
-      <c r="C85" s="13">
-        <v>1</v>
-      </c>
-      <c r="D85" s="13">
+      <c r="C85" s="12">
+        <v>1</v>
+      </c>
+      <c r="D85" s="12">
         <v>0.17676768000000001</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="12">
         <v>0.34343434</v>
       </c>
-      <c r="F85" s="13">
-        <v>1</v>
-      </c>
-      <c r="G85" s="13">
+      <c r="F85" s="12">
+        <v>1</v>
+      </c>
+      <c r="G85" s="12">
         <v>0.42929289999999998</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85" s="12">
         <v>0.75505051000000001</v>
       </c>
-      <c r="I85" s="13">
-        <v>1</v>
-      </c>
-      <c r="J85" s="13">
+      <c r="I85" s="12">
+        <v>1</v>
+      </c>
+      <c r="J85" s="12">
         <v>0.94381309999999996</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K85" s="12">
         <v>0.98275917209999997</v>
       </c>
-      <c r="L85" s="13">
-        <v>1</v>
-      </c>
-      <c r="M85" s="13">
-        <v>1</v>
-      </c>
-      <c r="N85" s="13">
-        <v>1</v>
-      </c>
-      <c r="P85" s="17"/>
+      <c r="L85" s="12">
+        <v>1</v>
+      </c>
+      <c r="M85" s="12">
+        <v>1</v>
+      </c>
+      <c r="N85" s="12">
+        <v>1</v>
+      </c>
+      <c r="P85" s="16"/>
     </row>
     <row r="86" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="12">
         <v>1.8255859999999999E-2</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="12">
         <v>0.18255859999999999</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="12">
         <v>0.73076923000000005</v>
       </c>
-      <c r="F86" s="13">
-        <v>1</v>
-      </c>
-      <c r="G86" s="13">
+      <c r="F86" s="12">
+        <v>1</v>
+      </c>
+      <c r="G86" s="12">
         <v>0.79220780000000002</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="12">
         <v>0.94522145000000002</v>
       </c>
-      <c r="I86" s="13">
-        <v>1</v>
-      </c>
-      <c r="J86" s="13">
+      <c r="I86" s="12">
+        <v>1</v>
+      </c>
+      <c r="J86" s="12">
         <v>0.94522139999999999</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K86" s="12">
         <v>0.91650378089999995</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L86" s="12">
         <v>0.83566434000000001</v>
       </c>
-      <c r="M86" s="13">
-        <v>1</v>
-      </c>
-      <c r="N86" s="13">
+      <c r="M86" s="12">
+        <v>1</v>
+      </c>
+      <c r="N86" s="12">
         <v>0.92851592999999999</v>
       </c>
-      <c r="P86" s="17"/>
+      <c r="P86" s="16"/>
     </row>
     <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="12">
         <v>0.41212121000000002</v>
       </c>
-      <c r="C87" s="13">
-        <v>1</v>
-      </c>
-      <c r="D87" s="13">
+      <c r="C87" s="12">
+        <v>1</v>
+      </c>
+      <c r="D87" s="12">
         <v>0.45791246000000002</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="12">
         <v>0.16363636000000001</v>
       </c>
-      <c r="F87" s="13">
-        <v>1</v>
-      </c>
-      <c r="G87" s="13">
+      <c r="F87" s="12">
+        <v>1</v>
+      </c>
+      <c r="G87" s="12">
         <v>0.27272730000000001</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="12">
         <v>0.31515152000000002</v>
       </c>
-      <c r="I87" s="13">
-        <v>1</v>
-      </c>
-      <c r="J87" s="13">
+      <c r="I87" s="12">
+        <v>1</v>
+      </c>
+      <c r="J87" s="12">
         <v>0.45021650000000002</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K87" s="12">
         <v>0.1118792218</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L87" s="12">
         <v>0.31515152000000002</v>
       </c>
-      <c r="M87" s="13">
-        <v>1</v>
-      </c>
-      <c r="N87" s="13">
+      <c r="M87" s="12">
+        <v>1</v>
+      </c>
+      <c r="N87" s="12">
         <v>0.45021644999999999</v>
       </c>
-      <c r="P87" s="17"/>
+      <c r="P87" s="16"/>
     </row>
     <row r="88" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="12">
         <v>0.16992989999999999</v>
       </c>
-      <c r="C88" s="13">
-        <v>1</v>
-      </c>
-      <c r="D88" s="13">
+      <c r="C88" s="12">
+        <v>1</v>
+      </c>
+      <c r="D88" s="12">
         <v>0.24275699000000001</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="12">
         <v>0.79220778999999997</v>
       </c>
-      <c r="F88" s="13">
-        <v>1</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="F88" s="12">
+        <v>1</v>
+      </c>
+      <c r="G88" s="12">
         <v>0.79220780000000002</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="12">
         <v>0.93073592999999999</v>
       </c>
-      <c r="I88" s="13">
-        <v>1</v>
-      </c>
-      <c r="J88" s="13">
+      <c r="I88" s="12">
+        <v>1</v>
+      </c>
+      <c r="J88" s="12">
         <v>0.94522139999999999</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K88" s="12">
         <v>0.99903784600000001</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="12">
         <v>0.79220778999999997</v>
       </c>
-      <c r="M88" s="13">
-        <v>1</v>
-      </c>
-      <c r="N88" s="13">
+      <c r="M88" s="12">
+        <v>1</v>
+      </c>
+      <c r="N88" s="12">
         <v>0.92851592999999999</v>
       </c>
-      <c r="P88" s="17"/>
+      <c r="P88" s="16"/>
     </row>
     <row r="89" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="12">
         <v>0.90476190000000001</v>
       </c>
-      <c r="C89" s="13">
-        <v>1</v>
-      </c>
-      <c r="D89" s="13">
+      <c r="C89" s="12">
+        <v>1</v>
+      </c>
+      <c r="D89" s="12">
         <v>0.90476190000000001</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="12">
         <v>6.3492060000000003E-2</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="12">
         <v>0.63492059999999995</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="12">
         <v>0.12698409999999999</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="12">
         <v>0.28571428999999998</v>
       </c>
-      <c r="I89" s="13">
-        <v>1</v>
-      </c>
-      <c r="J89" s="13">
+      <c r="I89" s="12">
+        <v>1</v>
+      </c>
+      <c r="J89" s="12">
         <v>0.45021650000000002</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K89" s="12">
         <v>6.2966712199999997E-2</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L89" s="12">
         <v>0.11111111</v>
       </c>
-      <c r="M89" s="13">
-        <v>1</v>
-      </c>
-      <c r="N89" s="13">
+      <c r="M89" s="12">
+        <v>1</v>
+      </c>
+      <c r="N89" s="12">
         <v>0.18518519</v>
       </c>
-      <c r="P89" s="17"/>
+      <c r="P89" s="16"/>
     </row>
     <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="12">
         <v>0.33588698</v>
       </c>
-      <c r="C90" s="13">
-        <v>1</v>
-      </c>
-      <c r="D90" s="13">
+      <c r="C90" s="12">
+        <v>1</v>
+      </c>
+      <c r="D90" s="12">
         <v>0.41985873000000001</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="12">
         <v>0.25714285999999997</v>
       </c>
-      <c r="F90" s="13">
-        <v>1</v>
-      </c>
-      <c r="G90" s="13">
+      <c r="F90" s="12">
+        <v>1</v>
+      </c>
+      <c r="G90" s="12">
         <v>0.36734689999999998</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90" s="12">
         <v>3.8095240000000002E-2</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I90" s="12">
         <v>0.38095240000000002</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="12">
         <v>0.12698409999999999</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K90" s="24">
         <v>3.0647886400000001E-2</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L90" s="12">
         <v>9.5238100000000006E-3</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M90" s="12">
         <v>9.5238100000000006E-2</v>
       </c>
-      <c r="N90" s="13">
+      <c r="N90" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
-      <c r="P90" s="17"/>
+      <c r="P90" s="16"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P91" s="17"/>
+      <c r="P91" s="16"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P92" s="17"/>
+      <c r="P92" s="16"/>
     </row>
     <row r="93" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="14"/>
-      <c r="C93" s="8" t="s">
+      <c r="B93" s="13"/>
+      <c r="C93" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="H93" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K93" s="8" t="s">
+      <c r="K93" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L93" s="8" t="s">
+      <c r="L93" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M93" s="8" t="s">
+      <c r="M93" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N93" s="8" t="s">
+      <c r="N93" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P93" s="19" t="s">
+      <c r="P93" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
@@ -3636,440 +3682,775 @@
       <c r="A96" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F96" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H96" s="12">
         <v>3.3333330000000001E-2</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I96" s="12">
         <v>0.3333333</v>
       </c>
-      <c r="J96" s="13">
+      <c r="J96" s="12">
         <v>0.12698409999999999</v>
       </c>
-      <c r="K96" s="13">
+      <c r="K96" s="24">
         <v>2.9523173900000001E-2</v>
       </c>
-      <c r="L96" s="13">
+      <c r="L96" s="12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="12">
         <v>0.1666667</v>
       </c>
-      <c r="N96" s="13">
+      <c r="N96" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H97" s="13">
+      <c r="H97" s="12">
         <v>7.1428569999999997E-2</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I97" s="12">
         <v>0.71428570000000002</v>
       </c>
-      <c r="J97" s="13">
+      <c r="J97" s="12">
         <v>0.14285709999999999</v>
       </c>
-      <c r="K97" s="13">
+      <c r="K97" s="12">
         <v>0.1006388714</v>
       </c>
-      <c r="L97" s="13">
+      <c r="L97" s="12">
         <v>3.5714290000000003E-2</v>
       </c>
-      <c r="M97" s="13">
+      <c r="M97" s="12">
         <v>0.35714289999999999</v>
       </c>
-      <c r="N97" s="13">
+      <c r="N97" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="12">
         <v>2.753189E-2</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="12">
         <v>0.27531889999999998</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E98" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G98" s="12">
         <v>0.1190476</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H98" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I98" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="J98" s="13">
+      <c r="J98" s="12">
         <v>0.12698409999999999</v>
       </c>
-      <c r="K98" s="13">
+      <c r="K98" s="12">
         <v>0.12804572259999999</v>
       </c>
-      <c r="L98" s="13">
+      <c r="L98" s="12">
         <v>2.3809520000000001E-2</v>
       </c>
-      <c r="M98" s="13">
+      <c r="M98" s="12">
         <v>0.23809520000000001</v>
       </c>
-      <c r="N98" s="13">
+      <c r="N98" s="12">
         <v>7.9365080000000005E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="12">
         <v>5.7142859999999997E-2</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="12">
         <v>0.57142859999999995</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="12">
         <v>0.11428571</v>
       </c>
-      <c r="E99" s="13">
+      <c r="E99" s="12">
         <v>5.7142859999999997E-2</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99" s="12">
         <v>0.57142859999999995</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G99" s="12">
         <v>0.12698409999999999</v>
       </c>
-      <c r="H99" s="13">
+      <c r="H99" s="12">
         <v>5.7142859999999997E-2</v>
       </c>
-      <c r="I99" s="13">
+      <c r="I99" s="12">
         <v>0.57142859999999995</v>
       </c>
-      <c r="J99" s="13">
+      <c r="J99" s="12">
         <v>0.14285709999999999</v>
       </c>
-      <c r="K99" s="13">
+      <c r="K99" s="24">
         <v>5.2527070000000001E-4</v>
       </c>
-      <c r="L99" s="13">
+      <c r="L99" s="12">
         <v>5.7142859999999997E-2</v>
       </c>
-      <c r="M99" s="13">
+      <c r="M99" s="12">
         <v>0.57142859999999995</v>
       </c>
-      <c r="N99" s="13">
+      <c r="N99" s="12">
         <v>0.11428571</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="12">
         <v>0.10606061</v>
       </c>
-      <c r="C100" s="13">
-        <v>1</v>
-      </c>
-      <c r="D100" s="13">
+      <c r="C100" s="12">
+        <v>1</v>
+      </c>
+      <c r="D100" s="12">
         <v>0.17676768000000001</v>
       </c>
-      <c r="E100" s="13">
+      <c r="E100" s="12">
         <v>0.34343434</v>
       </c>
-      <c r="F100" s="13">
-        <v>1</v>
-      </c>
-      <c r="G100" s="13">
+      <c r="F100" s="12">
+        <v>1</v>
+      </c>
+      <c r="G100" s="12">
         <v>0.42929289999999998</v>
       </c>
-      <c r="H100" s="13">
+      <c r="H100" s="12">
         <v>0.75505051000000001</v>
       </c>
-      <c r="I100" s="13">
-        <v>1</v>
-      </c>
-      <c r="J100" s="13">
+      <c r="I100" s="12">
+        <v>1</v>
+      </c>
+      <c r="J100" s="12">
         <v>0.94381309999999996</v>
       </c>
-      <c r="K100" s="13">
+      <c r="K100" s="12">
         <v>0.98275917209999997</v>
       </c>
-      <c r="L100" s="13">
-        <v>1</v>
-      </c>
-      <c r="M100" s="13">
-        <v>1</v>
-      </c>
-      <c r="N100" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L100" s="12">
+        <v>1</v>
+      </c>
+      <c r="M100" s="12">
+        <v>1</v>
+      </c>
+      <c r="N100" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="12">
         <v>1.8255859999999999E-2</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="12">
         <v>0.18255859999999999</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="12">
         <v>8.9285710000000004E-2</v>
       </c>
-      <c r="E101" s="13">
+      <c r="E101" s="12">
         <v>0.73076923000000005</v>
       </c>
-      <c r="F101" s="13">
-        <v>1</v>
-      </c>
-      <c r="G101" s="13">
+      <c r="F101" s="12">
+        <v>1</v>
+      </c>
+      <c r="G101" s="12">
         <v>0.79220780000000002</v>
       </c>
-      <c r="H101" s="13">
+      <c r="H101" s="12">
         <v>0.94522145000000002</v>
       </c>
-      <c r="I101" s="13">
-        <v>1</v>
-      </c>
-      <c r="J101" s="13">
+      <c r="I101" s="12">
+        <v>1</v>
+      </c>
+      <c r="J101" s="12">
         <v>0.94522139999999999</v>
       </c>
-      <c r="K101" s="13">
+      <c r="K101" s="12">
         <v>0.91650378089999995</v>
       </c>
-      <c r="L101" s="13">
+      <c r="L101" s="12">
         <v>0.83566434000000001</v>
       </c>
-      <c r="M101" s="13">
-        <v>1</v>
-      </c>
-      <c r="N101" s="13">
+      <c r="M101" s="12">
+        <v>1</v>
+      </c>
+      <c r="N101" s="12">
         <v>0.92851592999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="12">
         <v>0.41212121000000002</v>
       </c>
-      <c r="C102" s="13">
-        <v>1</v>
-      </c>
-      <c r="D102" s="13">
+      <c r="C102" s="12">
+        <v>1</v>
+      </c>
+      <c r="D102" s="12">
         <v>0.45791246000000002</v>
       </c>
-      <c r="E102" s="13">
+      <c r="E102" s="12">
         <v>0.16363636000000001</v>
       </c>
-      <c r="F102" s="13">
-        <v>1</v>
-      </c>
-      <c r="G102" s="13">
+      <c r="F102" s="12">
+        <v>1</v>
+      </c>
+      <c r="G102" s="12">
         <v>0.27272730000000001</v>
       </c>
-      <c r="H102" s="13">
+      <c r="H102" s="12">
         <v>0.31515152000000002</v>
       </c>
-      <c r="I102" s="13">
-        <v>1</v>
-      </c>
-      <c r="J102" s="13">
+      <c r="I102" s="12">
+        <v>1</v>
+      </c>
+      <c r="J102" s="12">
         <v>0.45021650000000002</v>
       </c>
-      <c r="K102" s="13">
+      <c r="K102" s="12">
         <v>0.1118792218</v>
       </c>
-      <c r="L102" s="13">
+      <c r="L102" s="12">
         <v>0.31515152000000002</v>
       </c>
-      <c r="M102" s="13">
-        <v>1</v>
-      </c>
-      <c r="N102" s="13">
+      <c r="M102" s="12">
+        <v>1</v>
+      </c>
+      <c r="N102" s="12">
         <v>0.45021644999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="12">
         <v>0.16992989999999999</v>
       </c>
-      <c r="C103" s="13">
-        <v>1</v>
-      </c>
-      <c r="D103" s="13">
+      <c r="C103" s="12">
+        <v>1</v>
+      </c>
+      <c r="D103" s="12">
         <v>0.24275699000000001</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E103" s="12">
         <v>0.79220778999999997</v>
       </c>
-      <c r="F103" s="13">
-        <v>1</v>
-      </c>
-      <c r="G103" s="13">
+      <c r="F103" s="12">
+        <v>1</v>
+      </c>
+      <c r="G103" s="12">
         <v>0.79220780000000002</v>
       </c>
-      <c r="H103" s="13">
+      <c r="H103" s="12">
         <v>0.93073592999999999</v>
       </c>
-      <c r="I103" s="13">
-        <v>1</v>
-      </c>
-      <c r="J103" s="13">
+      <c r="I103" s="12">
+        <v>1</v>
+      </c>
+      <c r="J103" s="12">
         <v>0.94522139999999999</v>
       </c>
-      <c r="K103" s="13">
+      <c r="K103" s="12">
         <v>0.99903784600000001</v>
       </c>
-      <c r="L103" s="13">
+      <c r="L103" s="12">
         <v>0.79220778999999997</v>
       </c>
-      <c r="M103" s="13">
-        <v>1</v>
-      </c>
-      <c r="N103" s="13">
+      <c r="M103" s="12">
+        <v>1</v>
+      </c>
+      <c r="N103" s="12">
         <v>0.92851592999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="12">
         <v>0.90476190000000001</v>
       </c>
-      <c r="C104" s="13">
-        <v>1</v>
-      </c>
-      <c r="D104" s="13">
+      <c r="C104" s="12">
+        <v>1</v>
+      </c>
+      <c r="D104" s="12">
         <v>0.90476190000000001</v>
       </c>
-      <c r="E104" s="13">
+      <c r="E104" s="12">
         <v>6.3492060000000003E-2</v>
       </c>
-      <c r="F104" s="13">
+      <c r="F104" s="12">
         <v>0.63492059999999995</v>
       </c>
-      <c r="G104" s="13">
+      <c r="G104" s="12">
         <v>0.12698409999999999</v>
       </c>
-      <c r="H104" s="13">
+      <c r="H104" s="12">
         <v>0.28571428999999998</v>
       </c>
-      <c r="I104" s="13">
-        <v>1</v>
-      </c>
-      <c r="J104" s="13">
+      <c r="I104" s="12">
+        <v>1</v>
+      </c>
+      <c r="J104" s="12">
         <v>0.45021650000000002</v>
       </c>
-      <c r="K104" s="13">
+      <c r="K104" s="12">
         <v>6.2966712199999997E-2</v>
       </c>
-      <c r="L104" s="13">
+      <c r="L104" s="12">
         <v>0.11111111</v>
       </c>
-      <c r="M104" s="13">
-        <v>1</v>
-      </c>
-      <c r="N104" s="13">
+      <c r="M104" s="12">
+        <v>1</v>
+      </c>
+      <c r="N104" s="12">
         <v>0.18518519</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="12">
         <v>0.33588698</v>
       </c>
-      <c r="C105" s="13">
-        <v>1</v>
-      </c>
-      <c r="D105" s="13">
+      <c r="C105" s="12">
+        <v>1</v>
+      </c>
+      <c r="D105" s="12">
         <v>0.41985873000000001</v>
       </c>
-      <c r="E105" s="13">
+      <c r="E105" s="12">
         <v>0.25714285999999997</v>
       </c>
-      <c r="F105" s="13">
-        <v>1</v>
-      </c>
-      <c r="G105" s="13">
+      <c r="F105" s="12">
+        <v>1</v>
+      </c>
+      <c r="G105" s="12">
         <v>0.36734689999999998</v>
       </c>
-      <c r="H105" s="13">
+      <c r="H105" s="12">
         <v>3.8095240000000002E-2</v>
       </c>
-      <c r="I105" s="13">
+      <c r="I105" s="12">
         <v>0.38095240000000002</v>
       </c>
-      <c r="J105" s="13">
+      <c r="J105" s="12">
         <v>0.12698409999999999</v>
       </c>
-      <c r="K105" s="13">
+      <c r="K105" s="24">
         <v>3.0647886400000001E-2</v>
       </c>
-      <c r="L105" s="13">
+      <c r="L105" s="12">
         <v>9.5238100000000006E-3</v>
       </c>
-      <c r="M105" s="13">
+      <c r="M105" s="12">
         <v>9.5238100000000006E-2</v>
       </c>
-      <c r="N105" s="13">
+      <c r="N105" s="12">
         <v>7.9365080000000005E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="13"/>
+      <c r="C112" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M112" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N112" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O112" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P112" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R112" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+    </row>
+    <row r="115" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="12">
+        <v>1</v>
+      </c>
+      <c r="C115" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0.15079822000000001</v>
+      </c>
+      <c r="F115" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G115" s="12">
+        <v>1</v>
+      </c>
+      <c r="H115" s="12">
+        <v>1</v>
+      </c>
+      <c r="I115" s="12">
+        <v>1</v>
+      </c>
+      <c r="J115" s="12">
+        <v>0.74203569999999996</v>
+      </c>
+      <c r="K115" s="12">
+        <v>1</v>
+      </c>
+      <c r="L115" s="12">
+        <v>1</v>
+      </c>
+      <c r="M115" s="12">
+        <v>0.75399110000000003</v>
+      </c>
+      <c r="N115" s="12">
+        <v>0.37699559999999999</v>
+      </c>
+      <c r="O115" s="12">
+        <v>1</v>
+      </c>
+      <c r="P115" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" s="12">
+        <v>0.78787879999999999</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0.78787879999999999</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0.64848485</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0.36542402000000002</v>
+      </c>
+      <c r="F116" s="12">
+        <v>0.64848485</v>
+      </c>
+      <c r="G116" s="12">
+        <v>1</v>
+      </c>
+      <c r="H116" s="12">
+        <v>1</v>
+      </c>
+      <c r="I116" s="12">
+        <v>1</v>
+      </c>
+      <c r="J116" s="12">
+        <v>0.98484850000000002</v>
+      </c>
+      <c r="K116" s="12">
+        <v>1</v>
+      </c>
+      <c r="L116" s="12">
+        <v>1</v>
+      </c>
+      <c r="M116" s="12">
+        <v>1</v>
+      </c>
+      <c r="N116" s="12">
+        <v>0.53650640000000005</v>
+      </c>
+      <c r="O116" s="12">
+        <v>1</v>
+      </c>
+      <c r="P116" s="12">
+        <v>0.84126979999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" s="12">
+        <v>9.5238100000000006E-2</v>
+      </c>
+      <c r="C117" s="12">
+        <v>9.5238100000000006E-2</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0.84126984000000005</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0.48026348000000002</v>
+      </c>
+      <c r="F117" s="12">
+        <v>0.84126984000000005</v>
+      </c>
+      <c r="G117" s="12">
+        <v>0.47619050000000002</v>
+      </c>
+      <c r="H117" s="12">
+        <v>0.47619050000000002</v>
+      </c>
+      <c r="I117" s="12">
+        <v>0.47619050000000002</v>
+      </c>
+      <c r="J117" s="12">
+        <v>0.47619050000000002</v>
+      </c>
+      <c r="K117" s="12">
+        <v>1</v>
+      </c>
+      <c r="L117" s="12">
+        <v>1</v>
+      </c>
+      <c r="M117" s="12">
+        <v>1</v>
+      </c>
+      <c r="N117" s="12">
+        <v>0.53650640000000005</v>
+      </c>
+      <c r="O117" s="12">
+        <v>1</v>
+      </c>
+      <c r="P117" s="12">
+        <v>0.84126979999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" s="12">
+        <v>0.43140139999999999</v>
+      </c>
+      <c r="C118" s="12">
+        <v>0.44522139999999999</v>
+      </c>
+      <c r="D118" s="12">
+        <v>1</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0.53650640999999999</v>
+      </c>
+      <c r="F118" s="12">
+        <v>0.73076923000000005</v>
+      </c>
+      <c r="G118" s="12">
+        <v>1</v>
+      </c>
+      <c r="H118" s="12">
+        <v>1</v>
+      </c>
+      <c r="I118" s="12">
+        <v>1</v>
+      </c>
+      <c r="J118" s="12">
+        <v>0.74203569999999996</v>
+      </c>
+      <c r="K118" s="12">
+        <v>1</v>
+      </c>
+      <c r="L118" s="12">
+        <v>1</v>
+      </c>
+      <c r="M118" s="12">
+        <v>1</v>
+      </c>
+      <c r="N118" s="12">
+        <v>0.53650640000000005</v>
+      </c>
+      <c r="O118" s="12">
+        <v>1</v>
+      </c>
+      <c r="P118" s="12">
+        <v>0.84126979999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" s="12">
+        <v>1</v>
+      </c>
+      <c r="C119" s="12">
+        <v>1</v>
+      </c>
+      <c r="D119" s="12">
+        <v>5.7142859999999997E-2</v>
+      </c>
+      <c r="E119" s="12">
+        <v>4.4946079999999999E-2</v>
+      </c>
+      <c r="F119" s="12">
+        <v>5.7142859999999997E-2</v>
+      </c>
+      <c r="G119" s="12">
+        <v>1</v>
+      </c>
+      <c r="H119" s="12">
+        <v>1</v>
+      </c>
+      <c r="I119" s="12">
+        <v>1</v>
+      </c>
+      <c r="J119" s="12">
+        <v>1</v>
+      </c>
+      <c r="K119" s="12">
+        <v>0.28571429999999998</v>
+      </c>
+      <c r="L119" s="12">
+        <v>0.28571429999999998</v>
+      </c>
+      <c r="M119" s="12">
+        <v>0.2247304</v>
+      </c>
+      <c r="N119" s="12">
+        <v>0.2247304</v>
+      </c>
+      <c r="O119" s="12">
+        <v>0.28571429999999998</v>
+      </c>
+      <c r="P119" s="12">
+        <v>0.28571429999999998</v>
       </c>
     </row>
   </sheetData>

--- a/saved_stats.xlsx
+++ b/saved_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Cecum_Microbes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C029F4-EA36-439E-9E68-D9D3C14D4044}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A56EF7-EFD2-4205-9228-C06DA0DF06EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{76FDAE5B-2FE0-4081-8A14-9A02BDD15C6B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="62">
   <si>
     <t>Summer_Wild Summer_Lab</t>
   </si>
@@ -145,6 +145,72 @@
   </si>
   <si>
     <t>sample type within group</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>TotalOTUs_Mean</t>
+  </si>
+  <si>
+    <t>TotalOTUs_Median</t>
+  </si>
+  <si>
+    <t>TotalOTUs_SD</t>
+  </si>
+  <si>
+    <t>TotalOTUs_SE</t>
+  </si>
+  <si>
+    <t>TotalOTUs_iqr</t>
+  </si>
+  <si>
+    <t>Chao_Mean</t>
+  </si>
+  <si>
+    <t>Chao_Median</t>
+  </si>
+  <si>
+    <t>Chao_SD</t>
+  </si>
+  <si>
+    <t>Chao_SE</t>
+  </si>
+  <si>
+    <t>Chao_iqr</t>
+  </si>
+  <si>
+    <t>Shannon_Mean</t>
+  </si>
+  <si>
+    <t>Shannon_Median</t>
+  </si>
+  <si>
+    <t>Shannon_SD</t>
+  </si>
+  <si>
+    <t>Shannon_SE</t>
+  </si>
+  <si>
+    <t>Shannon_iqr</t>
+  </si>
+  <si>
+    <t>InvSimp_Mean</t>
+  </si>
+  <si>
+    <t>InvSimp_Median</t>
+  </si>
+  <si>
+    <t>InvSimp_SD</t>
+  </si>
+  <si>
+    <t>InvSimp_SE</t>
+  </si>
+  <si>
+    <t>InvSimp_iqr</t>
+  </si>
+  <si>
+    <t>Summaries</t>
   </si>
 </sst>
 </file>
@@ -303,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F641FC-ECF0-4FEE-B1F4-8B1BE68EF1BC}">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView tabSelected="1" topLeftCell="D109" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4166,7 +4235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="11" t="s">
         <v>10</v>
       </c>
@@ -4185,7 +4254,7 @@
       <c r="O113" s="14"/>
       <c r="P113" s="14"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4203,7 +4272,7 @@
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
     </row>
-    <row r="115" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>34</v>
       </c>
@@ -4253,7 +4322,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>35</v>
       </c>
@@ -4303,7 +4372,7 @@
         <v>0.84126979999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>36</v>
       </c>
@@ -4353,7 +4422,7 @@
         <v>0.84126979999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>37</v>
       </c>
@@ -4403,7 +4472,7 @@
         <v>0.84126979999999996</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>38</v>
       </c>
@@ -4451,6 +4520,438 @@
       </c>
       <c r="P119" s="12">
         <v>0.28571429999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O125" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P125" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q125" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R125" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S125" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T125" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U125" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V125" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X125" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+    </row>
+    <row r="127" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <v>1</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="12">
+        <v>943.5</v>
+      </c>
+      <c r="D127" s="12">
+        <v>920.5</v>
+      </c>
+      <c r="E127" s="12">
+        <v>99.616770000000002</v>
+      </c>
+      <c r="F127" s="12">
+        <v>40.668370000000003</v>
+      </c>
+      <c r="G127" s="12">
+        <v>90.25</v>
+      </c>
+      <c r="H127" s="12">
+        <v>1391.7809999999999</v>
+      </c>
+      <c r="I127" s="12">
+        <v>1466.6744000000001</v>
+      </c>
+      <c r="J127" s="12">
+        <v>605.85850000000005</v>
+      </c>
+      <c r="K127" s="12">
+        <v>247.34069</v>
+      </c>
+      <c r="L127" s="12">
+        <v>825.28269999999998</v>
+      </c>
+      <c r="M127" s="12">
+        <v>4.9750319999999997</v>
+      </c>
+      <c r="N127" s="12">
+        <v>5.3936979999999997</v>
+      </c>
+      <c r="O127" s="12">
+        <v>0.83945309999999995</v>
+      </c>
+      <c r="P127" s="12">
+        <v>0.34270529999999999</v>
+      </c>
+      <c r="Q127" s="12">
+        <v>1.1569590000000001</v>
+      </c>
+      <c r="R127" s="12">
+        <v>60.446800000000003</v>
+      </c>
+      <c r="S127" s="12">
+        <v>73.123329999999996</v>
+      </c>
+      <c r="T127" s="12">
+        <v>36.838740000000001</v>
+      </c>
+      <c r="U127" s="12">
+        <v>15.039353</v>
+      </c>
+      <c r="V127" s="12">
+        <v>58.423560000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
+        <v>2</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" s="12">
+        <v>405.72730000000001</v>
+      </c>
+      <c r="D128" s="12">
+        <v>422</v>
+      </c>
+      <c r="E128" s="12">
+        <v>71.471800000000002</v>
+      </c>
+      <c r="F128" s="12">
+        <v>21.54956</v>
+      </c>
+      <c r="G128" s="12">
+        <v>100.5</v>
+      </c>
+      <c r="H128" s="12">
+        <v>684.49090000000001</v>
+      </c>
+      <c r="I128" s="12">
+        <v>686.375</v>
+      </c>
+      <c r="J128" s="12">
+        <v>237.38380000000001</v>
+      </c>
+      <c r="K128" s="12">
+        <v>71.573909999999998</v>
+      </c>
+      <c r="L128" s="12">
+        <v>330.49419999999998</v>
+      </c>
+      <c r="M128" s="12">
+        <v>4.0572939999999997</v>
+      </c>
+      <c r="N128" s="12">
+        <v>4.0597750000000001</v>
+      </c>
+      <c r="O128" s="12">
+        <v>0.87935790000000003</v>
+      </c>
+      <c r="P128" s="12">
+        <v>0.26513639999999999</v>
+      </c>
+      <c r="Q128" s="12">
+        <v>0.972136</v>
+      </c>
+      <c r="R128" s="12">
+        <v>29.662099999999999</v>
+      </c>
+      <c r="S128" s="12">
+        <v>17.613219999999998</v>
+      </c>
+      <c r="T128" s="12">
+        <v>26.408829999999998</v>
+      </c>
+      <c r="U128" s="12">
+        <v>7.962561</v>
+      </c>
+      <c r="V128" s="12">
+        <v>30.297429999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
+        <v>3</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" s="12">
+        <v>302.7</v>
+      </c>
+      <c r="D129" s="12">
+        <v>304.5</v>
+      </c>
+      <c r="E129" s="12">
+        <v>51.785989999999998</v>
+      </c>
+      <c r="F129" s="12">
+        <v>16.376169999999998</v>
+      </c>
+      <c r="G129" s="12">
+        <v>84.5</v>
+      </c>
+      <c r="H129" s="12">
+        <v>648.83879999999999</v>
+      </c>
+      <c r="I129" s="12">
+        <v>589.26499999999999</v>
+      </c>
+      <c r="J129" s="12">
+        <v>233.75919999999999</v>
+      </c>
+      <c r="K129" s="12">
+        <v>73.92116</v>
+      </c>
+      <c r="L129" s="12">
+        <v>419.06569999999999</v>
+      </c>
+      <c r="M129" s="12">
+        <v>3.9475609999999999</v>
+      </c>
+      <c r="N129" s="12">
+        <v>3.939324</v>
+      </c>
+      <c r="O129" s="12">
+        <v>0.66696880000000003</v>
+      </c>
+      <c r="P129" s="12">
+        <v>0.21091409999999999</v>
+      </c>
+      <c r="Q129" s="12">
+        <v>0.90072529999999995</v>
+      </c>
+      <c r="R129" s="12">
+        <v>22.702020000000001</v>
+      </c>
+      <c r="S129" s="12">
+        <v>16.988900000000001</v>
+      </c>
+      <c r="T129" s="12">
+        <v>18.27319</v>
+      </c>
+      <c r="U129" s="12">
+        <v>5.7784909999999998</v>
+      </c>
+      <c r="V129" s="12">
+        <v>21.632490000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
+        <v>4</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" s="12">
+        <v>281.92309999999998</v>
+      </c>
+      <c r="D130" s="12">
+        <v>281</v>
+      </c>
+      <c r="E130" s="12">
+        <v>71.794219999999996</v>
+      </c>
+      <c r="F130" s="12">
+        <v>19.912130000000001</v>
+      </c>
+      <c r="G130" s="12">
+        <v>49</v>
+      </c>
+      <c r="H130" s="12">
+        <v>717.21280000000002</v>
+      </c>
+      <c r="I130" s="12">
+        <v>575.91669999999999</v>
+      </c>
+      <c r="J130" s="12">
+        <v>526.32579999999996</v>
+      </c>
+      <c r="K130" s="12">
+        <v>145.97650999999999</v>
+      </c>
+      <c r="L130" s="12">
+        <v>578.64729999999997</v>
+      </c>
+      <c r="M130" s="12">
+        <v>4.071091</v>
+      </c>
+      <c r="N130" s="12">
+        <v>4.005503</v>
+      </c>
+      <c r="O130" s="12">
+        <v>0.79379770000000005</v>
+      </c>
+      <c r="P130" s="12">
+        <v>0.22015989999999999</v>
+      </c>
+      <c r="Q130" s="12">
+        <v>0.52562200000000003</v>
+      </c>
+      <c r="R130" s="12">
+        <v>27.058530000000001</v>
+      </c>
+      <c r="S130" s="12">
+        <v>22.57048</v>
+      </c>
+      <c r="T130" s="12">
+        <v>22.013159999999999</v>
+      </c>
+      <c r="U130" s="12">
+        <v>6.105353</v>
+      </c>
+      <c r="V130" s="12">
+        <v>25.0474</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
+        <v>5</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="12">
+        <v>320.28570000000002</v>
+      </c>
+      <c r="D131" s="12">
+        <v>412</v>
+      </c>
+      <c r="E131" s="12">
+        <v>163.78921</v>
+      </c>
+      <c r="F131" s="12">
+        <v>61.906500000000001</v>
+      </c>
+      <c r="G131" s="12">
+        <v>225.5</v>
+      </c>
+      <c r="H131" s="12">
+        <v>411.29539999999997</v>
+      </c>
+      <c r="I131" s="12">
+        <v>373.28120000000001</v>
+      </c>
+      <c r="J131" s="12">
+        <v>206.22309999999999</v>
+      </c>
+      <c r="K131" s="12">
+        <v>77.945009999999996</v>
+      </c>
+      <c r="L131" s="12">
+        <v>168.15790000000001</v>
+      </c>
+      <c r="M131" s="12">
+        <v>3.2656269999999998</v>
+      </c>
+      <c r="N131" s="12">
+        <v>3.384995</v>
+      </c>
+      <c r="O131" s="12">
+        <v>0.98395460000000001</v>
+      </c>
+      <c r="P131" s="12">
+        <v>0.37189990000000001</v>
+      </c>
+      <c r="Q131" s="12">
+        <v>0.8733455</v>
+      </c>
+      <c r="R131" s="12">
+        <v>15.676130000000001</v>
+      </c>
+      <c r="S131" s="12">
+        <v>10.19351</v>
+      </c>
+      <c r="T131" s="12">
+        <v>14.32841</v>
+      </c>
+      <c r="U131" s="12">
+        <v>5.4156300000000002</v>
+      </c>
+      <c r="V131" s="12">
+        <v>10.227119999999999</v>
       </c>
     </row>
   </sheetData>

--- a/saved_stats.xlsx
+++ b/saved_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Cecum_Microbes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A56EF7-EFD2-4205-9228-C06DA0DF06EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204AEF25-1A8E-4B94-842F-0176FEFFB27B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{76FDAE5B-2FE0-4081-8A14-9A02BDD15C6B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="68">
   <si>
     <t>Summer_Wild Summer_Lab</t>
   </si>
@@ -211,6 +211,24 @@
   </si>
   <si>
     <t>Summaries</t>
+  </si>
+  <si>
+    <t>pval</t>
+  </si>
+  <si>
+    <t>Adj.bonf</t>
+  </si>
+  <si>
+    <t>Adj.BH</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Bray NMDS PERMANOVA</t>
+  </si>
+  <si>
+    <t>Mucosa</t>
   </si>
 </sst>
 </file>
@@ -369,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +455,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F641FC-ECF0-4FEE-B1F4-8B1BE68EF1BC}">
-  <dimension ref="A1:X131"/>
+  <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D109" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,9 +789,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="1"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -775,9 +799,9 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="1"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7"/>
@@ -4954,6 +4978,313 @@
         <v>10.227119999999999</v>
       </c>
     </row>
+    <row r="135" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="13"/>
+      <c r="C135" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F135" t="s">
+        <v>66</v>
+      </c>
+      <c r="J135" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O135" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="F136" t="s">
+        <v>65</v>
+      </c>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="O136" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="J137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K137" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L137" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="M137" s="24">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C138" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D138" s="24">
+        <v>1.428571E-3</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K138" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L138" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="M138" s="24">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="C139" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="D139" s="24">
+        <v>2.2222219999999998E-3</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K139" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L139" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="M139" s="24">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C140" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D140" s="24">
+        <v>1.428571E-3</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K140" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L140" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="M140" s="24">
+        <v>3.333333E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C141" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D141" s="24">
+        <v>1.428571E-3</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K141" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L141" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="M141" s="24">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C142" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D142" s="24">
+        <v>1.428571E-3</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K142" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L142" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="M142" s="24">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C143" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D143" s="24">
+        <v>1.428571E-3</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K143" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L143" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="M143" s="24">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="C144" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="D144" s="24">
+        <v>2.2222219999999998E-3</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K144" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L144" s="12">
+        <v>1</v>
+      </c>
+      <c r="M144" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C145" s="12">
+        <v>1</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K145" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L145" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="M145" s="24">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C146" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D146" s="24">
+        <v>1.428571E-3</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K146" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="L146" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="M146" s="24">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C147" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D147" s="24">
+        <v>1.428571E-3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
